--- a/Reports/Масштабируемость.xlsx
+++ b/Reports/Масштабируемость.xlsx
@@ -119,15 +119,15 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -184,7 +184,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> времени исполнения от сисла потоков для матрицы размером 10000</a:t>
+              <a:t> времени исполнения от числа потоков для матрицы размером 10000</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -341,11 +341,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234443224"/>
-        <c:axId val="234441656"/>
+        <c:axId val="95628216"/>
+        <c:axId val="145758240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234443224"/>
+        <c:axId val="95628216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -458,12 +458,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234441656"/>
+        <c:crossAx val="145758240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234441656"/>
+        <c:axId val="145758240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,7 +576,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234443224"/>
+        <c:crossAx val="95628216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -833,8 +833,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="584219080"/>
-        <c:axId val="228877736"/>
+        <c:axId val="145762552"/>
+        <c:axId val="145763336"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -973,7 +973,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="584219080"/>
+        <c:axId val="145762552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,12 +1086,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228877736"/>
+        <c:crossAx val="145763336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228877736"/>
+        <c:axId val="145763336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1204,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584219080"/>
+        <c:crossAx val="145762552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1519,11 +1519,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="588738128"/>
-        <c:axId val="588733816"/>
+        <c:axId val="145761376"/>
+        <c:axId val="145762160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="588738128"/>
+        <c:axId val="145761376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,12 +1640,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588733816"/>
+        <c:crossAx val="145762160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="588733816"/>
+        <c:axId val="145762160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1762,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588738128"/>
+        <c:crossAx val="145761376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3863,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3874,16 +3874,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3917,13 +3917,13 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4">
         <v>110.5</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4">
@@ -3956,7 +3956,7 @@
         <v>1.9693459276421315</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L12" si="0">K5/J5</f>
+        <f t="shared" ref="L5:L11" si="0">K5/J5</f>
         <v>0.98467296382106573</v>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>16</v>
       </c>
       <c r="G6">
@@ -3977,7 +3977,7 @@
         <v>4</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K5:K12" si="1">H$4/H6</f>
+        <f t="shared" ref="K6:K12" si="1">H$4/H6</f>
         <v>3.6870203536870205</v>
       </c>
       <c r="L6">
